--- a/crawling/data/univ_addr.xlsx
+++ b/crawling/data/univ_addr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B4F695-AA88-462F-AD8B-BFD8A4579C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992D3EB-A6C9-44ED-943F-03AD00891023}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29C7F78-80EF-4A9E-9CCC-5F37658D6B0A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D29C7F78-80EF-4A9E-9CCC-5F37658D6B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>강경욱</t>
   </si>
@@ -57,12 +57,6 @@
     <t xml:space="preserve"> 고려대학교</t>
   </si>
   <si>
-    <t>김대환</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 울산대학교</t>
-  </si>
-  <si>
     <t>김상현</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t xml:space="preserve"> 숙명여자대학교</t>
   </si>
   <si>
-    <t>신보라</t>
-  </si>
-  <si>
     <t>이수경</t>
   </si>
   <si>
@@ -387,14 +378,6 @@
   </si>
   <si>
     <t>경기도 용인시 처인구 모현읍 외대로 81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산광역시 남구 대학로 93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ?!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +766,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -801,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
@@ -812,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75">
@@ -823,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75">
@@ -834,505 +817,492 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>

--- a/crawling/data/univ_addr.xlsx
+++ b/crawling/data/univ_addr.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\project_final\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B4F695-AA88-462F-AD8B-BFD8A4579C58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29C7F78-80EF-4A9E-9CCC-5F37658D6B0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,7 +400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -779,21 +778,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2DB625-06D5-4F9A-93E5-42FB1CA2CE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
-    <col min="2" max="2" width="66.875" customWidth="1"/>
-    <col min="3" max="3" width="63.125" customWidth="1"/>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="2" max="2" width="66.8984375" customWidth="1"/>
+    <col min="3" max="3" width="63.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -815,7 +814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,7 +825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -848,7 +847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -859,7 +858,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -870,7 +869,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -881,7 +880,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75">
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -892,7 +891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75">
+    <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -903,7 +902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75">
+    <row r="11" spans="1:3" ht="18">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75">
+    <row r="12" spans="1:3" ht="18">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +921,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
+    <row r="13" spans="1:3" ht="18">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -933,7 +932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75">
+    <row r="14" spans="1:3" ht="18">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -944,7 +943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75">
+    <row r="15" spans="1:3" ht="18">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -955,7 +954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75">
+    <row r="16" spans="1:3" ht="18">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,7 +965,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1340,5 +1339,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/crawling/data/univ_addr.xlsx
+++ b/crawling/data/univ_addr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992D3EB-A6C9-44ED-943F-03AD00891023}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0D935-96B9-4CA7-A423-41CBE3CA0A63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D29C7F78-80EF-4A9E-9CCC-5F37658D6B0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29C7F78-80EF-4A9E-9CCC-5F37658D6B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,353 +31,335 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
-  <si>
-    <t>강경욱</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t xml:space="preserve"> 한국외국어대학교 서울캠퍼스</t>
   </si>
   <si>
+    <t xml:space="preserve"> 홍익대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경기대학교 수원캠퍼스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고려대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한양대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중앙대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서울대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 숙명여자대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성신여자대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 세종대학교</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가천대학교 글로벌캠퍼스</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이화여자대학교</t>
+  </si>
+  <si>
+    <t>가톨릭대학교 성신교정</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 창경궁로 296-12</t>
+  </si>
+  <si>
+    <t>가톨릭대학교 성의교정</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 반포대로 222</t>
+  </si>
+  <si>
+    <t>건국대학교</t>
+  </si>
+  <si>
+    <t>서울시 광진구 능동로 120</t>
+  </si>
+  <si>
+    <t>경기대학교 서울캠퍼스</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 경기대로9길 24</t>
+  </si>
+  <si>
+    <t>경희대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 경희대로 26</t>
+  </si>
+  <si>
+    <t>고려대학교</t>
+  </si>
+  <si>
+    <t>광운대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 광운로 20</t>
+  </si>
+  <si>
+    <t>국민대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 정릉로 77</t>
+  </si>
+  <si>
+    <t>덕성여자대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 도봉구 삼양로 144길 33</t>
+  </si>
+  <si>
+    <t>덕성여자대학교 종로캠퍼스</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 운니동 114</t>
+  </si>
+  <si>
+    <t>동국대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 중구 필동로 1길30</t>
+  </si>
+  <si>
+    <t>동덕여자대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 화랑로13길 60</t>
+  </si>
+  <si>
+    <t>명지대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 거북골로 34</t>
+  </si>
+  <si>
+    <t>삼육대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 화랑로 815</t>
+  </si>
+  <si>
+    <t>상명대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 홍지문2길 20</t>
+  </si>
+  <si>
+    <t>서강대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 백범로 35</t>
+  </si>
+  <si>
+    <t>서경대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 서경로 124</t>
+  </si>
+  <si>
+    <t>서울과학기술대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 공릉로 232</t>
+  </si>
+  <si>
+    <t>서울대학교</t>
+  </si>
+  <si>
+    <t>서울시립대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 서울시립대로 163</t>
+  </si>
+  <si>
+    <t>서울여자대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 화랑로 621</t>
+  </si>
+  <si>
+    <t>성균관대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 성균관로 25-2</t>
+  </si>
+  <si>
+    <t>성균관대학교 자연과학캠퍼스</t>
+  </si>
+  <si>
+    <t>성신여자대학교</t>
+  </si>
+  <si>
+    <t>성신여자대학교 운정그린캠퍼스</t>
+  </si>
+  <si>
+    <t>서울특별시 강북구 도봉로 76가길 55</t>
+  </si>
+  <si>
+    <t>세종대학교</t>
+  </si>
+  <si>
+    <t>숙명여자대학교</t>
+  </si>
+  <si>
+    <t>숭실대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구 상도로 369</t>
+  </si>
+  <si>
+    <t>연세대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 연세로 50</t>
+  </si>
+  <si>
+    <t>이화여자대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 이화여대길 52</t>
+  </si>
+  <si>
+    <t>중앙대학교</t>
+  </si>
+  <si>
+    <t>한국외국어대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 이문로 107</t>
+  </si>
+  <si>
+    <t>한성대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 삼선교로 16길 116</t>
+  </si>
+  <si>
+    <t>한양대학교</t>
+  </si>
+  <si>
+    <t>홍익대학교</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 와우산로 94</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 안암로 145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성균관대학교 자연과학캠퍼스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 장안구 서부로 2066</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 관악구 관악로 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 관악구 신림동 산 56-1 서울대학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 대현동 11-1 이화여자대학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성북구 보문로 34다길 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 용산구 청파로47길 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 광진구 능동로 209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경희대학교 국제캠퍼스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 성남시 수정구 성남대로 1342</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 이문로 107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 상수동 와우산로 94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 동작구 흑석로 84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구 왕십리로 222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교산로 154-42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한국외국어대학교 글로벌캠퍼스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 외대로 81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 덕영대로 1732</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남창우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최예진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>고병화</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 홍익대학교</t>
-  </si>
-  <si>
-    <t>권구상</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경기대학교 수원캠퍼스</t>
-  </si>
-  <si>
-    <t>김다민</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 고려대학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김상현</t>
-  </si>
-  <si>
-    <t>김성익</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한양대학교</t>
-  </si>
-  <si>
-    <t>김유빈</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중앙대학교</t>
-  </si>
-  <si>
-    <t>김의서</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서울대학교</t>
-  </si>
-  <si>
-    <t>김채은</t>
-  </si>
-  <si>
-    <t>박미현</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 숙명여자대학교</t>
-  </si>
-  <si>
-    <t>이수경</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성신여자대학교</t>
-  </si>
-  <si>
-    <t>이현동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세종대학교</t>
-  </si>
-  <si>
-    <t>정승재</t>
-  </si>
-  <si>
-    <t>정승현</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가천대학교 글로벌캠퍼스</t>
-  </si>
-  <si>
-    <t>최예진</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이화여자대학교</t>
-  </si>
-  <si>
-    <t>가톨릭대학교 성신교정</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 창경궁로 296-12</t>
-  </si>
-  <si>
-    <t>가톨릭대학교 성의교정</t>
-  </si>
-  <si>
-    <t>서울특별시 서초구 반포대로 222</t>
-  </si>
-  <si>
-    <t>건국대학교</t>
-  </si>
-  <si>
-    <t>서울시 광진구 능동로 120</t>
-  </si>
-  <si>
-    <t>경기대학교 서울캠퍼스</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 경기대로9길 24</t>
-  </si>
-  <si>
-    <t>경희대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 경희대로 26</t>
-  </si>
-  <si>
-    <t>고려대학교</t>
-  </si>
-  <si>
-    <t>광운대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구 광운로 20</t>
-  </si>
-  <si>
-    <t>국민대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 정릉로 77</t>
-  </si>
-  <si>
-    <t>덕성여자대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 도봉구 삼양로 144길 33</t>
-  </si>
-  <si>
-    <t>덕성여자대학교 종로캠퍼스</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 운니동 114</t>
-  </si>
-  <si>
-    <t>동국대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 필동로 1길30</t>
-  </si>
-  <si>
-    <t>동덕여자대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 화랑로13길 60</t>
-  </si>
-  <si>
-    <t>명지대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 거북골로 34</t>
-  </si>
-  <si>
-    <t>삼육대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구 화랑로 815</t>
-  </si>
-  <si>
-    <t>상명대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 홍지문2길 20</t>
-  </si>
-  <si>
-    <t>서강대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 백범로 35</t>
-  </si>
-  <si>
-    <t>서경대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 서경로 124</t>
-  </si>
-  <si>
-    <t>서울과학기술대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구 공릉로 232</t>
-  </si>
-  <si>
-    <t>서울대학교</t>
-  </si>
-  <si>
-    <t>서울시립대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 서울시립대로 163</t>
-  </si>
-  <si>
-    <t>서울여자대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구 화랑로 621</t>
-  </si>
-  <si>
-    <t>성균관대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 성균관로 25-2</t>
-  </si>
-  <si>
-    <t>성균관대학교 자연과학캠퍼스</t>
-  </si>
-  <si>
-    <t>성신여자대학교</t>
-  </si>
-  <si>
-    <t>성신여자대학교 운정그린캠퍼스</t>
-  </si>
-  <si>
-    <t>서울특별시 강북구 도봉로 76가길 55</t>
-  </si>
-  <si>
-    <t>세종대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 능동로 209</t>
-  </si>
-  <si>
-    <t>숙명여자대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 청파로47길 100</t>
-  </si>
-  <si>
-    <t>숭실대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 동작구 상도로 369</t>
-  </si>
-  <si>
-    <t>연세대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 연세로 50</t>
-  </si>
-  <si>
-    <t>이화여자대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 이화여대길 52</t>
-  </si>
-  <si>
-    <t>중앙대학교</t>
-  </si>
-  <si>
-    <t>한국외국어대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 이문로 107</t>
-  </si>
-  <si>
-    <t>한성대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 삼선교로 16길 116</t>
-  </si>
-  <si>
-    <t>한양대학교</t>
-  </si>
-  <si>
-    <t>홍익대학교</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 와우산로 94</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 안암로 145</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성균관대학교 자연과학캠퍼스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 수원시 장안구 서부로 2066</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 관악구 관악로 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 관악구 신림동 산 56-1 서울대학교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 대현동 11-1 이화여자대학교</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 성북구 보문로 34다길 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 용산구 청파로47길 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 광진구 능동로 209</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경희대학교 국제캠퍼스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 용인시 기흥구 덕영대로 1732</t>
-  </si>
-  <si>
-    <t>경기도 성남시 수정구 성남대로 1342</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 이문로 107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 마포구 상수동 와우산로 94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 동작구 흑석로 84</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 성동구 왕십리로 222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 수원시 영통구 광교산로 154-42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한국외국어대학교 글로벌캠퍼스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 용인시 처인구 모현읍 외대로 81</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -763,552 +745,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2DB625-06D5-4F9A-93E5-42FB1CA2CE92}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="2" max="2" width="66.875" customWidth="1"/>
-    <col min="3" max="3" width="63.125" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>